--- a/data/network_diagram_alt.xlsx
+++ b/data/network_diagram_alt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaden Humphries\Desktop\Scott's Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF289A3-F8F2-448B-9CE6-600A068723F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43409C-3E8B-46FF-BCD4-65372BD2E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FD27001-DFD4-4AA0-80CB-98EF0B77155D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>CI_Type</t>
   </si>
@@ -187,12 +187,6 @@
   </si>
   <si>
     <t>Organization</t>
-  </si>
-  <si>
-    <t>Dependency_Type_Descrip</t>
-  </si>
-  <si>
-    <t>Business description…</t>
   </si>
 </sst>
 </file>
@@ -596,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A403A-755E-4165-8DDF-621577D0D37A}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -609,13 +603,12 @@
     <col min="3" max="3" width="21.796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.46484375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="3"/>
+    <col min="6" max="6" width="21.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,16 +625,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -658,16 +648,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -684,16 +671,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -710,16 +694,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -736,16 +717,13 @@
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -762,16 +740,13 @@
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -788,16 +763,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -814,16 +786,13 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -840,16 +809,13 @@
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -866,16 +832,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -892,16 +855,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -918,16 +878,13 @@
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -944,16 +901,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -970,16 +924,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -996,16 +947,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1022,16 +970,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -1048,16 +993,13 @@
         <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1074,16 +1016,13 @@
         <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1100,16 +1039,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1126,16 +1062,13 @@
         <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1152,16 +1085,13 @@
         <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1178,16 +1108,13 @@
         <v>27</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1204,16 +1131,13 @@
         <v>27</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1230,16 +1154,13 @@
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1256,16 +1177,13 @@
         <v>27</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -1282,16 +1200,13 @@
         <v>27</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -1308,16 +1223,13 @@
         <v>33</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -1334,16 +1246,13 @@
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -1360,16 +1269,13 @@
         <v>33</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -1386,16 +1292,13 @@
         <v>33</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G30" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1412,12 +1315,9 @@
         <v>33</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
     </row>
